--- a/Docs/WorldKoora_DataBase_Planning.xlsx
+++ b/Docs/WorldKoora_DataBase_Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\worldkoora\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\worldkoora-v2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA09FA3-F18F-4579-994B-0F5D4CCFA60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1069B577-9739-4FB0-A77D-7E9578D88AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="615" firstSheet="6" activeTab="15" xr2:uid="{9FD83ADC-CA79-4F24-BAB0-4697EB654507}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="615" firstSheet="6" activeTab="16" xr2:uid="{9FD83ADC-CA79-4F24-BAB0-4697EB654507}"/>
   </bookViews>
   <sheets>
     <sheet name="player " sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="rapport" sheetId="20" r:id="rId14"/>
     <sheet name="rapportDetails" sheetId="21" r:id="rId15"/>
     <sheet name="Ressources" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
   <si>
     <t>Table player</t>
   </si>
@@ -370,6 +371,159 @@
   </si>
   <si>
     <t>LeagueId</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/1/Arsenal/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/2/Aston-Villa/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/30/Barnsley/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/35/Birmingham-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/3/Blackburn-Rovers/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/44/Blackpool/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/27/Bolton-Wanderers/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/127/Bournemouth/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/32/Bradford-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/130/Brentford/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/131/Brighton-and-Hove-Albion/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/43/Burnley/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/46/Cardiff-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/31/Charlton-Athletic/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/4/Chelsea/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/5/Coventry-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/6/Crystal-Palace/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/28/Derby-County/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/7/Everton/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/34/Fulham/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/159/Huddersfield-Town/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/41/Hull-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/8/Ipswich-Town/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/9/Leeds-United/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/26/Leicester-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/10/Liverpool/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/163/Luton-Town/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/11/Manchester-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/12/Manchester-United/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/13/Middlesbrough/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/23/Newcastle-United/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/14/Norwich-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/15/Nottingham-Forest/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/16/Oldham-Athletic/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/37/Portsmouth/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/17/Queens-Park-Rangers/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/40/Reading/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/18/Sheffield-United/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/19/Sheffield-Wednesday/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/20/Southampton/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/42/Stoke-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/29/Sunderland/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/45/Swansea-City/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/24/Swindon-Town/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/21/Tottenham-Hotspur/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/33/Watford/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/36/West-Bromwich-Albion/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/25/West-Ham-United/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/39/Wigan-Athletic/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/22/Wimbledon/overview</t>
+  </si>
+  <si>
+    <t>https://www.premierleague.com/clubs/38/Wolverhampton-Wanderers/overview</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65709718-A500-4770-BFB3-2C6586EE0E27}">
   <dimension ref="A4:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,6 +1516,280 @@
     <hyperlink ref="B11" r:id="rId7" xr:uid="{A1BB0674-08B3-446C-8D8F-A277B333CA56}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{34FD7923-D18F-4B4B-B6D5-D1DBA0A3AD77}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDA723-1C5E-43EA-966C-8BE9D4F340AB}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Docs/WorldKoora_DataBase_Planning.xlsx
+++ b/Docs/WorldKoora_DataBase_Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\worldkoora-v2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1069B577-9739-4FB0-A77D-7E9578D88AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D577CB0-FB97-4C77-8133-FFBC13C3AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="615" firstSheet="6" activeTab="16" xr2:uid="{9FD83ADC-CA79-4F24-BAB0-4697EB654507}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="615" firstSheet="6" activeTab="15" xr2:uid="{9FD83ADC-CA79-4F24-BAB0-4697EB654507}"/>
   </bookViews>
   <sheets>
     <sheet name="player " sheetId="1" r:id="rId1"/>
@@ -49,18 +49,36 @@
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{398212F6-936B-464F-9F14-903674013AAC}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     (Stadium) </t>
+        </r>
       </text>
     </comment>
     <comment ref="H5" authorId="1" shapeId="0" xr:uid="{A5DA2EAC-B023-4A3E-8910-B24F07A7178E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     (e.g., Upcoming, Live, Completed)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
   <si>
     <t>Table player</t>
   </si>
@@ -524,6 +542,9 @@
   </si>
   <si>
     <t>https://www.premierleague.com/clubs/38/Wolverhampton-Wanderers/overview</t>
+  </si>
+  <si>
+    <t>https://www.uefa.com/nationalassociations/</t>
   </si>
 </sst>
 </file>
@@ -1035,24 +1056,24 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
@@ -1072,7 +1093,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1138,21 +1159,21 @@
       <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -1179,18 +1200,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>51</v>
       </c>
@@ -1201,7 +1222,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1240,18 +1261,18 @@
       <selection activeCell="A4" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>58</v>
       </c>
@@ -1259,7 +1280,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -1289,16 +1310,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>95</v>
       </c>
@@ -1307,7 +1328,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -1340,21 +1361,21 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -1381,15 +1402,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
@@ -1397,7 +1418,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
@@ -1421,19 +1442,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65709718-A500-4770-BFB3-2C6586EE0E27}">
-  <dimension ref="A4:B12"/>
+  <dimension ref="A4:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1"/>
-    <col min="2" max="2" width="89.88671875" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
@@ -1441,7 +1462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -1449,7 +1470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -1457,7 +1478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -1465,7 +1486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -1473,7 +1494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>76</v>
       </c>
@@ -1481,7 +1502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -1489,7 +1510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -1497,12 +1518,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1515,6 +1541,7 @@
     <hyperlink ref="B10" r:id="rId6" xr:uid="{3BC2CE70-2AE5-4A3A-8287-2373FC828BEC}"/>
     <hyperlink ref="B11" r:id="rId7" xr:uid="{A1BB0674-08B3-446C-8D8F-A277B333CA56}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{34FD7923-D18F-4B4B-B6D5-D1DBA0A3AD77}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{E9D3FC82-B366-4F74-BED6-7502D054AB67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1524,267 +1551,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDA723-1C5E-43EA-966C-8BE9D4F340AB}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -1802,20 +1829,20 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>79</v>
       </c>
@@ -1829,7 +1856,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -1877,21 +1904,21 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1905,7 +1932,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1953,26 +1980,26 @@
       <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1996,20 +2023,20 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
@@ -2033,19 +2060,19 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -2056,7 +2083,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2095,19 +2122,19 @@
       <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" customWidth="1"/>
-    <col min="8" max="8" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
@@ -2119,7 +2146,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -2163,21 +2190,20 @@
       <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -2191,7 +2217,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -2239,27 +2265,27 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
